--- a/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.729821499767908</v>
+        <v>-7.620489573514891</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.247041368051953</v>
+        <v>-7.617024100679627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.269182056421647</v>
+        <v>-9.135718785304737</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.149840792546382</v>
+        <v>2.325656564785501</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.494420760552436</v>
+        <v>-4.712216987100439</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.228648707241182</v>
+        <v>-3.042384335318797</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.810847378870225</v>
+        <v>-1.19435190642677</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.639353866416728</v>
+        <v>-4.75067147621398</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.406570290605385</v>
+        <v>-4.72602077372385</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.0210576842134811</v>
+        <v>-0.4541109055832567</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2710964303732812</v>
+        <v>0.2001941116265449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.709587734049995</v>
+        <v>-1.475619518648252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.940667230475221</v>
+        <v>8.906607721430225</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.051670794319046</v>
+        <v>3.132272693988493</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.37336637563598</v>
+        <v>3.881495697532462</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.355628557597455</v>
+        <v>4.117357449444776</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9662772234824429</v>
+        <v>0.7078270818474757</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7441980818119204</v>
+        <v>0.5290332792972237</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3152703971038022</v>
+        <v>-0.3148069908025313</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3035932487737875</v>
+        <v>-0.3164993146739097</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3960236475643902</v>
+        <v>-0.3755741043831313</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.07353971084469578</v>
+        <v>0.08405089964211451</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1625139913132461</v>
+        <v>-0.1703945929695363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1175964564642833</v>
+        <v>-0.1092668513923402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03366813145098052</v>
+        <v>-0.04569791456097035</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1794206391489209</v>
+        <v>-0.1858027112579163</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1738919656419765</v>
+        <v>-0.1839875692136619</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0003193958958130514</v>
+        <v>-0.02481528311040827</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01190921870353285</v>
+        <v>0.009056589555537009</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.0851941821908026</v>
+        <v>-0.06514912337360032</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3618948529525177</v>
+        <v>0.3671615209874152</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.120648956700033</v>
+        <v>0.1304037548029152</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1381319599568271</v>
+        <v>0.1604940752920353</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1833915361152157</v>
+        <v>0.1760861881240953</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04270306399757311</v>
+        <v>0.03035221570326452</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03215727348570985</v>
+        <v>0.023461437223472</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-5.748022207543148</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.175726700171845</v>
+        <v>-2.175726700171837</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.540257804744033</v>
+        <v>-1.488701654845261</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.856975924090492</v>
+        <v>-6.622683456207271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.044334445329786</v>
+        <v>-3.977092260281324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8884160042607052</v>
+        <v>0.9365522137056727</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.410339599089919</v>
+        <v>-9.459846776677711</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.251771742957758</v>
+        <v>-5.369266405035654</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2993205279268412</v>
+        <v>0.09235724253554019</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.273974382876647</v>
+        <v>-7.46711569215671</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.841994717257059</v>
+        <v>-3.781370362212931</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.352227785735617</v>
+        <v>2.968783446874576</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.510700749948473</v>
+        <v>-2.374717108296516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4922161605986895</v>
+        <v>0.4855318414696038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.329177254287358</v>
+        <v>6.432863855858082</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.31945056590115</v>
+        <v>-4.583964186698099</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.1241564663720433</v>
+        <v>-0.3910282325448896</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.07396553533532</v>
+        <v>3.905532244255224</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.020698953425651</v>
+        <v>-4.097646055442405</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.5298661089016782</v>
+        <v>-0.4209688976257043</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.336109977896783</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1272234912635748</v>
+        <v>-0.1272234912635743</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1083508670276561</v>
+        <v>-0.09542258001846098</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4438337677397103</v>
+        <v>-0.4411636817972461</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2601428342063871</v>
+        <v>-0.2630402259629697</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04044422038703347</v>
+        <v>0.04590486149629144</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4366203992351581</v>
+        <v>-0.434744987766264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2409735366485048</v>
+        <v>-0.2482120896496106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01721869184363578</v>
+        <v>0.00283892511799584</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4074485626320949</v>
+        <v>-0.4113332461111153</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2140383920531504</v>
+        <v>-0.2097064311633084</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2604813180731938</v>
+        <v>0.2259158494198447</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1937913065718831</v>
+        <v>-0.1897026700220326</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03953841756159628</v>
+        <v>0.03820570663119943</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3420019589427342</v>
+        <v>0.3338445501938125</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2258287859995571</v>
+        <v>-0.2453486064556189</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.005688569292798864</v>
+        <v>-0.01982657405565484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2526383136703302</v>
+        <v>0.2404160798396393</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2509096764285868</v>
+        <v>-0.2543537666050552</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.03458127312303231</v>
+        <v>-0.02580767870366735</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-5.567039260809581</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.634892139905286</v>
+        <v>-1.634892139905284</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.084908308254346</v>
@@ -1092,7 +1092,7 @@
         <v>-5.424917451095633</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.258437797246029</v>
+        <v>-1.258437797246031</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.909850715544268</v>
+        <v>-6.512916680916625</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.377469256539287</v>
+        <v>-9.483670669019856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.467828930079865</v>
+        <v>-5.362553478496399</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.775178686765651</v>
+        <v>-7.610485803587606</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.48080458903678</v>
+        <v>-10.26528151596963</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.120531924215755</v>
+        <v>-6.370998488834863</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.902264442909258</v>
+        <v>-5.581520011415775</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.819412017489672</v>
+        <v>-8.624866869906672</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.546506931994634</v>
+        <v>-4.183208855772621</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.127659639386148</v>
+        <v>3.308282803029389</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.723817244374162</v>
+        <v>-1.080802174874443</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.14870030014928</v>
+        <v>2.431766084556418</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.374174921920505</v>
+        <v>2.514110530742055</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.9132472791746562</v>
+        <v>-0.6785450835636062</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.605547529628099</v>
+        <v>2.620864580105295</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.337081962952616</v>
+        <v>1.219619711135377</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.59719427191949</v>
+        <v>-2.459267044824837</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.798141201102087</v>
+        <v>1.880326180023321</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2891402713985514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.08491284772632071</v>
+        <v>-0.08491284772632057</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1237022104390579</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3218723228705569</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.07466589135026924</v>
+        <v>-0.07466589135026941</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3552276587734869</v>
+        <v>-0.3805906574239186</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.565336065146759</v>
+        <v>-0.5496426783522492</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3088244240341906</v>
+        <v>-0.3223554252181388</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3679321813107295</v>
+        <v>-0.3580074046505821</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4724011868319997</v>
+        <v>-0.4672634292981944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2744421497963312</v>
+        <v>-0.2826113051273774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3178368558078361</v>
+        <v>-0.2993674105561968</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4579871892748081</v>
+        <v>-0.4669813563500441</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2380245978355457</v>
+        <v>-0.2224655763217727</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2414371906166987</v>
+        <v>0.2632883981413688</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1219722976601181</v>
+        <v>-0.06870174689181709</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.247020371442731</v>
+        <v>0.1943144737011377</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1381649265990127</v>
+        <v>0.1499728010815406</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.05573898791999508</v>
+        <v>-0.04011129087827628</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1622920231487818</v>
+        <v>0.1570557913415249</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09187024330085758</v>
+        <v>0.08188058820680333</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1670621940124793</v>
+        <v>-0.1542465183837431</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1183346569519559</v>
+        <v>0.1328857495410762</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.178346488874193</v>
+        <v>-3.156325798404833</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.844455524493761</v>
+        <v>-7.117547926315733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.217307527909979</v>
+        <v>-5.301610913683112</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.317254516388193</v>
+        <v>1.318792355928031</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.652538616067163</v>
+        <v>-7.603790838236437</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.651409831978694</v>
+        <v>-4.887240909131072</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3892805862373436</v>
+        <v>-0.2542758940960265</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.862262460387147</v>
+        <v>-6.782015287748503</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.596710706887881</v>
+        <v>-4.352190597912029</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6197401028348469</v>
+        <v>0.7499890929416512</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.501987473239771</v>
+        <v>-3.596424240865307</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.742666822406191</v>
+        <v>-1.537352725933781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.465101481931123</v>
+        <v>5.755644714776274</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.779732467076108</v>
+        <v>-3.792244488140311</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.9677639606123494</v>
+        <v>-1.181428791579568</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.479560364516972</v>
+        <v>2.660919351097101</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.281728109567632</v>
+        <v>-4.232419677389814</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.942478720092906</v>
+        <v>-1.813026589276358</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.178080756724178</v>
+        <v>-0.1758925497895612</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3893622539005849</v>
+        <v>-0.3963722200500153</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2927025745389849</v>
+        <v>-0.2940892221587435</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05360109733779925</v>
+        <v>0.05531153955939203</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3253229176316711</v>
+        <v>-0.325503360832047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1974094096907191</v>
+        <v>-0.2042955895461954</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01855167964630905</v>
+        <v>-0.01217042213926876</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3334671923938586</v>
+        <v>-0.3335335467053107</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2251284300666985</v>
+        <v>-0.2143266271080939</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03887417768561829</v>
+        <v>0.04703424600364824</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2208863407818703</v>
+        <v>-0.2234907607430085</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1093346615325257</v>
+        <v>-0.0966178687223343</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2534412677685103</v>
+        <v>0.2703604152281822</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1765519781545599</v>
+        <v>-0.1769781140544271</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04399208582756933</v>
+        <v>-0.05535107152845001</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1307792146485361</v>
+        <v>0.1419705449833124</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.222658170596677</v>
+        <v>-0.2231609983057245</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1029049937984721</v>
+        <v>-0.09590597547558294</v>
       </c>
     </row>
     <row r="28">
